--- a/biology/Botanique/Tillandsia_tetrantha/Tillandsia_tetrantha.xlsx
+++ b/biology/Botanique/Tillandsia_tetrantha/Tillandsia_tetrantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia tetrantha Ruiz &amp; Pav. est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète tetrantha signifie « à quatre fleurs » et se rapporte à l'aspect des épillets de l'inflorescence, comme illustré par l'image du protologue.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia tetrantha Ruiz &amp; Pav., Fl. Peruv. 3: 39, n°1, tab. 265 (1802)
-Diagnose originale[1]  :
+Diagnose originale  :
 « T. erecta, pedunculis reflexis quadrifloris. »
 Type : Fl. Peruv. : tab. 265 (1802) // leg. H.Ruiz Lopez &amp; J.A.Pavon y Jiménez ; Holotypus MA (cf. IPNI).
 </t>
@@ -548,11 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Racinaea tetrantha (Ruiz &amp; Pav.) M.A.Spencer &amp; L.B.Sm.
-Billbergia tetrantha (Ruiz &amp; Pav.) Beer
-Synonymie taxonomique
-(aucune)</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Racinaea tetrantha (Ruiz &amp; Pav.) M.A.Spencer &amp; L.B.Sm.
+Billbergia tetrantha (Ruiz &amp; Pav.) Beer</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,16 +630,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette monocarpique vivace par ses rejets latéraux ; épiphyte[1],[2] ou saxicole[1].
-Habitat : milieux forestiers[1],[2].
-Altitude : ?</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,22 +658,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Antilles :
- Cuba[2]
-Hispaniola[2]
-Amérique centrale :
- Costa Rica[2]
-Amérique du Sud :
- Colombie[2]
- Équateur[2]
- Pérou
-Régions andines[1],[3]
- Venezuela[2]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette monocarpique vivace par ses rejets latéraux ; épiphyte, ou saxicole.
+Habitat : milieux forestiers,.
+Altitude : ?</t>
         </is>
       </c>
     </row>
@@ -675,10 +692,26 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comportement en culture</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Antilles :
+ Cuba
+Hispaniola
+Amérique centrale :
+ Costa Rica
+Amérique du Sud :
+ Colombie
+ Équateur
+ Pérou
+Régions andines,
+ Venezuela</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -701,72 +734,280 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Comportement en culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxons infra spécifiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia tetrantha var. tetrantha
-(autonyme)
-Altitude : 1800-3250 m[2].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia tetrantha var. tetrantha</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(autonyme)
+Altitude : 1800-3250 m.
 Distribution : 
- Pérou[2]
-nord du Pérou[3]
- Venezuela[2]
-Tillandsia tetrantha var. aurantiaca (Griseb.) L.B.Sm.
-Tillandsia tetrantha var. aurantiaca L.B.Sm., in Contr. Gray Herb. 89: 15 (1930)
+ Pérou
+nord du Pérou
+ Venezuela
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxons infra spécifiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia tetrantha var. aurantiaca (Griseb.) L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia tetrantha var. aurantiaca L.B.Sm., in Contr. Gray Herb. 89: 15 (1930)
 Synonymie :
 [ basionyme ] Tillandsia aurantiaca Griseb.
 Racinaea tetrantha var. aurantiaca (Griseb.) M.A.Spencer &amp; L.B.Sm.
-Tussacia fulgens Klotzsch ex Beer[4],[2]
-Tillandsia fulgens (Klotzsch ex Beer) Mez[4],[2]
-Catopsis garckeana Wittm[4],[2].
-Altitude : 750-3300 m[2].
+Tussacia fulgens Klotzsch ex Beer,
+Tillandsia fulgens (Klotzsch ex Beer) Mez,
+Catopsis garckeana Wittm,.
+Altitude : 750-3300 m.
 Distribution :
- Colombie[4],[2]
- Équateur[4],[2]
- Pérou[4]
-Nord du Pérou[2]
-Ayabaca[4]
- Venezuela[4],[2]
-Tillandsia tetrantha var. caribaea (L.B.Sm.) Gouda
-Tillandsia tetrantha var. caribaea (L.B.Sm.) Gouda, Fl. Guianas, ser. A, Phanerogams 3(189): 65 (1987)
+ Colombie,
+ Équateur,
+ Pérou
+Nord du Pérou
+Ayabaca
+ Venezuela,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Taxons infra spécifiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tillandsia tetrantha var. caribaea (L.B.Sm.) Gouda</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia tetrantha var. caribaea (L.B.Sm.) Gouda, Fl. Guianas, ser. A, Phanerogams 3(189): 65 (1987)
 Synonymie :
 [ basionyme ] Tillandsia caribeae L.B.Sm.
 Racinaea tetrantha var. caribaea (L.B.Sm.) M.A.Spencer &amp; L.B.Sm.
-Altitude : 1050-2400 m[2].
+Altitude : 1050-2400 m.
 Distribution:
- Costa Rica[2]
- Cuba[2]
-Hispaniola[2]
- Venezuela[2]
-Tillandsia tetrantha var. densiflora (André) L.B.Sm.
-Tillandsia tetrantha var. densiflora (André) L.B.Sm., in Contr. Gray Herb. 89: 15 (1930)
+ Costa Rica
+ Cuba
+Hispaniola
+ Venezuela
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Taxons infra spécifiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tillandsia tetrantha var. densiflora (André) L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia tetrantha var. densiflora (André) L.B.Sm., in Contr. Gray Herb. 89: 15 (1930)
 Synonymie :
 [ basionyme ] Tillandsia aurantiaca var. densiflora André
 Racinaea tetrantha var. densiflora (André) M.A.Spencer &amp; L.B.Sm.
 Tillandsia fulgens var. densiflora (André) Mez
-Altitude : 2250-2900 m[2].
+Altitude : 2250-2900 m.
 Distribution :
- Équateur[4],[2]
- Colombie[4],[2]
-Tillandsia tetrantha var. miniata (André) L.B.Sm.
-Tillandsia tetrantha var. miniata (André) L.B.Sm., in Contr. Gray Herb. 89: 15 (1930)
+ Équateur,
+ Colombie,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Taxons infra spécifiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tillandsia tetrantha var. miniata (André) L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia tetrantha var. miniata (André) L.B.Sm., in Contr. Gray Herb. 89: 15 (1930)
 Synonymie :
 [ basionyme ] Tillandsia aurantiaca var. miniata André
 Racinaea tetrantha var. miniata (André) M.A.Spencer &amp; L.B.Sm.
-Tillansia aurantiaca var. densiflora André[4]
+Tillansia aurantiaca var. densiflora André
 Tillandsia fulgens var. densiflora (André) Mez
-Altitude : 2700-3375 m[2].
+Altitude : 2700-3375 m.
 Distribution :
- Colombie[4],[2]
- Équateur[4],[2]
+ Colombie,
+ Équateur,
  Venezuela
-W du Venezuela[2]
-Tillandsia tetrantha var. ramosior L.B.Sm.
-L'épithète ramosior signifie « plus ramifié » et se rapporte à l'aspect de l'inflorescence.
+W du Venezuela
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taxons infra spécifiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tillandsia tetrantha var. ramosior L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète ramosior signifie « plus ramifié » et se rapporte à l'aspect de l'inflorescence.
 Tillandsia tetrantha var. ramosior L.B.Sm., in Phytologia 13(2): 147 (1966)
-Diagnose originale[5]  :
+Diagnose originale  :
 « A var. tetrantha et varietatibus alteris inflorescentia tripinnata differt. A T. bakeri L. B. Smith bracteis primariis, florigeris floribusque majoribus, et a T. tripinnata (Baker) Mez spicarum rhachibus vix angulatis nec geniculatis differt. »
 Type :
 leg. J.K.Wright &amp; P.C.Hutchison, n° 5669, 1964-06-14 ; « Peru. Department Amazonas. Province Chachapoyas. Cerros Calla Calla, 18 km above Leimebamba (km. 410) on road to Balsas. Alt. 3100 m. » ; Holotypus US National Herbarium (US 00091123)
@@ -776,26 +1017,96 @@
 leg. J.K.Wright &amp; P.C.Hutchison, n° 5669, 1964-06-14 ; Isotypus UC.
 Synonymie :
 Racinaea tetrantha var. ramosior (L.B.Sm.) Spencer &amp; L.B.Sm.
-Altitude : 3100 m[5]
+Altitude : 3100 m
 Distribution :
- Équateur[2]
- Pérou[2]
+ Équateur
+ Pérou
 Amazonas
-Chachapoyas[5]
-Tillandsia tetrantha var. scarlatina (André) L.B.Sm.
-Tillandsia tetrantha var. scarlatina (André) L.B.Sm., in Contr. Gray Herb. 89: 15 (1930)
+Chachapoyas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Taxons infra spécifiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tillandsia tetrantha var. scarlatina (André) L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia tetrantha var. scarlatina (André) L.B.Sm., in Contr. Gray Herb. 89: 15 (1930)
 Synonymie :
 [ basionyme ] Tillandsia aurantiaca var. scarlatina André
 Racinaea tetrantha var. scarlatina (André) M.A.Spencer &amp; L.B.Sm.
-Altitude : 2400-3800 m[2].
+Altitude : 2400-3800 m.
 Distribution :
- Colombie[4]
-Sud de la Colombie[2]
- Équateur[4],[2]
+ Colombie
+Sud de la Colombie
+ Équateur,
  Venezuela
-W du Venezuela[2]
-Tillandsia tetrantha var. typica L.B.Sm.
-Tillandsia tetrantha var. typica L.B.Sm., in Contr. Gray Herb. 89: 42 (1930)
+W du Venezuela
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_tetrantha</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Taxons infra spécifiques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tillandsia tetrantha var. typica L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia tetrantha var. typica L.B.Sm., in Contr. Gray Herb. 89: 42 (1930)
 Synonymie :
 Tillandsia tetrantha var. tetrantha
 </t>
